--- a/burndownchart.xlsx
+++ b/burndownchart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evanriker\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evanriker\Desktop\Winter 2024\Applied Programing\Pong-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80181160-741E-4FC9-826C-598C0AD7B3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEE32F6-FB96-45B4-94D2-4DDCAD9728B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="888" yWindow="1140" windowWidth="17172" windowHeight="9960" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Iteration" sheetId="1" r:id="rId1"/>
@@ -79,18 +79,6 @@
   </si>
   <si>
     <t>Product Backlog Items</t>
-  </si>
-  <si>
-    <t>Feature 10</t>
-  </si>
-  <si>
-    <t>Feature 11</t>
-  </si>
-  <si>
-    <t>Feature 12</t>
-  </si>
-  <si>
-    <t>Feature 13</t>
   </si>
   <si>
     <t>Feature 14</t>
@@ -198,7 +186,19 @@
     <t xml:space="preserve">if the ball gets past a paddle the other player gets a point </t>
   </si>
   <si>
-    <t>After a score the ball resets</t>
+    <t>4 paddles instad of 4</t>
+  </si>
+  <si>
+    <t>After a score the ball and paddles resets</t>
+  </si>
+  <si>
+    <t>There is a menu screen</t>
+  </si>
+  <si>
+    <t>There is a start button</t>
+  </si>
+  <si>
+    <t>clicking the start button starts the game</t>
   </si>
 </sst>
 </file>
@@ -3902,10 +3902,10 @@
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3946,7 +3946,7 @@
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="40" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
@@ -3974,7 +3974,7 @@
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="40" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
@@ -4005,7 +4005,7 @@
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="40" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="38" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -4085,7 +4085,7 @@
       <c r="U6" s="38"/>
       <c r="V6" s="38"/>
       <c r="W6" s="41" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="X6" s="42"/>
     </row>
@@ -4094,7 +4094,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -4157,15 +4157,15 @@
         <v>20</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="22"/>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="11" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="22"/>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="13" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="15" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="16" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
@@ -4641,7 +4641,7 @@
     </row>
     <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
@@ -4675,7 +4675,7 @@
     </row>
     <row r="23" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="22"/>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="25" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="26" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
@@ -4811,7 +4811,7 @@
     </row>
     <row r="27" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="28" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="29" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="30" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="31" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
@@ -4981,7 +4981,7 @@
     </row>
     <row r="32" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="33" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="34" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
@@ -5083,7 +5083,7 @@
     </row>
     <row r="35" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="36" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="37" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="38" spans="1:24" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B38" s="10">
         <f>SUM(B8:B37)</f>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="39" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B39" s="12">
         <f>SUM(B8:B37)</f>

--- a/burndownchart.xlsx
+++ b/burndownchart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evanriker\Desktop\Winter 2024\Applied Programing\Pong-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEE32F6-FB96-45B4-94D2-4DDCAD9728B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3653BD2A-66F3-41C0-A35B-D2D510143F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="13944" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Iteration" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Product Backlog Items</t>
-  </si>
-  <si>
-    <t>Feature 14</t>
   </si>
   <si>
     <t>Feature 15</t>
@@ -162,9 +159,6 @@
     <t>Beginning Balance</t>
   </si>
   <si>
-    <t>There are two paddles</t>
-  </si>
-  <si>
     <t>They move up and down based off of user input</t>
   </si>
   <si>
@@ -183,22 +177,28 @@
     <t>There is a point display</t>
   </si>
   <si>
-    <t xml:space="preserve">if the ball gets past a paddle the other player gets a point </t>
-  </si>
-  <si>
-    <t>4 paddles instad of 4</t>
-  </si>
-  <si>
     <t>After a score the ball and paddles resets</t>
   </si>
   <si>
     <t>There is a menu screen</t>
   </si>
   <si>
-    <t>There is a start button</t>
+    <t>clicking the start button starts the game</t>
   </si>
   <si>
-    <t>clicking the start button starts the game</t>
+    <t>4 paddles instad of 2</t>
+  </si>
+  <si>
+    <t>If the ball gets past your paddle you earn a point.</t>
+  </si>
+  <si>
+    <t>The game is on a time limit at the end of time the ball despawns and the players with the least points is displayed as the winner</t>
+  </si>
+  <si>
+    <t>There are 4 paddles</t>
+  </si>
+  <si>
+    <t>There is a start button to start the game</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1058,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1251,34 +1251,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>50.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>44.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>39.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>33.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>27.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>22.399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>16.79999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>11.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.5999999999999908</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1788,7 +1788,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -2030,34 +2030,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>50.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>44.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>39.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>33.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>27.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>22.399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>16.79999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>11.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.5999999999999908</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3901,11 +3901,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE633DE-FC74-4926-B2DF-316D2130537E}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3946,7 +3946,7 @@
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
@@ -3974,14 +3974,14 @@
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="33">
         <f>B38</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
@@ -4005,12 +4005,14 @@
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
-      <c r="G4" s="33"/>
+      <c r="G4" s="33">
+        <v>10</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -4063,7 +4065,7 @@
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -4085,16 +4087,16 @@
       <c r="U6" s="38"/>
       <c r="V6" s="38"/>
       <c r="W6" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X6" s="42"/>
     </row>
-    <row r="7" spans="1:24" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -4157,17 +4159,19 @@
         <v>20</v>
       </c>
       <c r="W7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="X7" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="18"/>
+        <v>41</v>
+      </c>
+      <c r="B8" s="18">
+        <v>4</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="19"/>
@@ -4190,18 +4194,20 @@
       <c r="V8" s="20"/>
       <c r="W8" s="27">
         <f>B8-SUM(C8:V8)</f>
+        <v>4</v>
+      </c>
+      <c r="X8" s="17">
+        <f>IFERROR(1-(W8/B8),"")</f>
         <v>0</v>
-      </c>
-      <c r="X8" s="17" t="str">
-        <f>IFERROR(1-(W8/B8),"")</f>
-        <v/>
       </c>
     </row>
     <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="B9" s="21">
+        <v>4</v>
+      </c>
       <c r="C9" s="22"/>
       <c r="D9" s="23"/>
       <c r="E9" s="22"/>
@@ -4224,18 +4230,20 @@
       <c r="V9" s="23"/>
       <c r="W9" s="28">
         <f t="shared" ref="W9:W37" si="0">B9-SUM(C9:V9)</f>
+        <v>4</v>
+      </c>
+      <c r="X9" s="17">
+        <f>IFERROR(1-(W9/B9),"")</f>
         <v>0</v>
-      </c>
-      <c r="X9" s="17" t="str">
-        <f>IFERROR(1-(W9/B9),"")</f>
-        <v/>
       </c>
     </row>
     <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="B10" s="21">
+        <v>4</v>
+      </c>
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
       <c r="E10" s="22"/>
@@ -4258,18 +4266,20 @@
       <c r="V10" s="23"/>
       <c r="W10" s="28">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="X10" s="17">
+        <f t="shared" ref="X10:X38" si="1">IFERROR(1-(W10/B10),"")</f>
         <v>0</v>
-      </c>
-      <c r="X10" s="17" t="str">
-        <f t="shared" ref="X10:X38" si="1">IFERROR(1-(W10/B10),"")</f>
-        <v/>
       </c>
     </row>
     <row r="11" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="21"/>
+        <v>31</v>
+      </c>
+      <c r="B11" s="21">
+        <v>4</v>
+      </c>
       <c r="C11" s="22"/>
       <c r="D11" s="23"/>
       <c r="E11" s="22"/>
@@ -4292,18 +4302,20 @@
       <c r="V11" s="23"/>
       <c r="W11" s="28">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="X11" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="X11" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
     </row>
     <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="B12" s="21">
+        <v>4</v>
+      </c>
       <c r="C12" s="22"/>
       <c r="D12" s="23"/>
       <c r="E12" s="22"/>
@@ -4326,18 +4338,20 @@
       <c r="V12" s="23"/>
       <c r="W12" s="28">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="X12" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="X12" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
     </row>
     <row r="13" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="B13" s="21">
+        <v>4</v>
+      </c>
       <c r="C13" s="22"/>
       <c r="D13" s="23"/>
       <c r="E13" s="22"/>
@@ -4360,18 +4374,20 @@
       <c r="V13" s="23"/>
       <c r="W13" s="28">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="X13" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="X13" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
     </row>
     <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="21"/>
+        <v>34</v>
+      </c>
+      <c r="B14" s="21">
+        <v>4</v>
+      </c>
       <c r="C14" s="22"/>
       <c r="D14" s="23"/>
       <c r="E14" s="22"/>
@@ -4394,18 +4410,20 @@
       <c r="V14" s="23"/>
       <c r="W14" s="28">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="X14" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="X14" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
     </row>
     <row r="15" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="B15" s="21">
+        <v>4</v>
+      </c>
       <c r="C15" s="22"/>
       <c r="D15" s="23"/>
       <c r="E15" s="22"/>
@@ -4428,18 +4446,20 @@
       <c r="V15" s="23"/>
       <c r="W15" s="28">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="X15" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="X15" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
     </row>
     <row r="16" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="21"/>
+        <v>35</v>
+      </c>
+      <c r="B16" s="21">
+        <v>4</v>
+      </c>
       <c r="C16" s="22"/>
       <c r="D16" s="23"/>
       <c r="E16" s="22"/>
@@ -4462,18 +4482,20 @@
       <c r="V16" s="23"/>
       <c r="W16" s="28">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="X16" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="X16" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="21">
+        <v>4</v>
+      </c>
       <c r="C17" s="22"/>
       <c r="D17" s="23"/>
       <c r="E17" s="22"/>
@@ -4496,18 +4518,20 @@
       <c r="V17" s="23"/>
       <c r="W17" s="28">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="X17" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="X17" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
     </row>
     <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="21"/>
+        <v>36</v>
+      </c>
+      <c r="B18" s="21">
+        <v>4</v>
+      </c>
       <c r="C18" s="22"/>
       <c r="D18" s="23"/>
       <c r="E18" s="22"/>
@@ -4530,18 +4554,20 @@
       <c r="V18" s="23"/>
       <c r="W18" s="28">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="X18" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="X18" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
     </row>
     <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="21"/>
+        <v>42</v>
+      </c>
+      <c r="B19" s="21">
+        <v>4</v>
+      </c>
       <c r="C19" s="22"/>
       <c r="D19" s="23"/>
       <c r="E19" s="22"/>
@@ -4564,18 +4590,20 @@
       <c r="V19" s="23"/>
       <c r="W19" s="28">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="X19" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="X19" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
     </row>
     <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="B20" s="21">
+        <v>4</v>
+      </c>
       <c r="C20" s="22"/>
       <c r="D20" s="23"/>
       <c r="E20" s="22"/>
@@ -4598,18 +4626,20 @@
       <c r="V20" s="23"/>
       <c r="W20" s="28">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="X20" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="X20" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
     </row>
     <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="21"/>
+        <v>40</v>
+      </c>
+      <c r="B21" s="21">
+        <v>4</v>
+      </c>
       <c r="C21" s="22"/>
       <c r="D21" s="23"/>
       <c r="E21" s="22"/>
@@ -4632,16 +4662,16 @@
       <c r="V21" s="23"/>
       <c r="W21" s="28">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="X21" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="X21" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
     </row>
     <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
@@ -4675,7 +4705,7 @@
     </row>
     <row r="23" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="22"/>
@@ -4709,7 +4739,7 @@
     </row>
     <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
@@ -4743,7 +4773,7 @@
     </row>
     <row r="25" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
@@ -4777,7 +4807,7 @@
     </row>
     <row r="26" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
@@ -4811,7 +4841,7 @@
     </row>
     <row r="27" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
@@ -4845,7 +4875,7 @@
     </row>
     <row r="28" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
@@ -4879,7 +4909,7 @@
     </row>
     <row r="29" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
@@ -4913,7 +4943,7 @@
     </row>
     <row r="30" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
@@ -4947,7 +4977,7 @@
     </row>
     <row r="31" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
@@ -4981,7 +5011,7 @@
     </row>
     <row r="32" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
@@ -5015,7 +5045,7 @@
     </row>
     <row r="33" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
@@ -5049,7 +5079,7 @@
     </row>
     <row r="34" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
@@ -5083,7 +5113,7 @@
     </row>
     <row r="35" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
@@ -5117,7 +5147,7 @@
     </row>
     <row r="36" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
@@ -5151,7 +5181,7 @@
     </row>
     <row r="37" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
@@ -5185,11 +5215,11 @@
     </row>
     <row r="38" spans="1:24" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="10">
         <f>SUM(B8:B37)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C38" s="11" t="e">
         <f>IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
@@ -5273,100 +5303,100 @@
       </c>
       <c r="W38" s="35">
         <f>SUM(W8:W37)</f>
+        <v>56</v>
+      </c>
+      <c r="X38" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="X38" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
     </row>
     <row r="39" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B39" s="12">
         <f>SUM(B8:B37)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C39" s="13">
         <f>IFERROR((IF(B39-($B$38/$G$4) &lt; 0,"-", B39-($B$38/$G$4))),IFERROR(B39-($B$38/20),"-"))</f>
-        <v>0</v>
+        <v>50.4</v>
       </c>
       <c r="D39" s="13">
         <f t="shared" ref="D39:V39" si="3">IFERROR((IF(C39-($B$38/$G$4) &lt; 0,"-", C39-($B$38/$G$4))),IFERROR(C39-($B$38/20),"-"))</f>
-        <v>0</v>
+        <v>44.8</v>
       </c>
       <c r="E39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>39.199999999999996</v>
       </c>
       <c r="F39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>33.599999999999994</v>
       </c>
       <c r="G39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27.999999999999993</v>
       </c>
       <c r="H39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>22.399999999999991</v>
       </c>
       <c r="I39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16.79999999999999</v>
       </c>
       <c r="J39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11.19999999999999</v>
       </c>
       <c r="K39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="13">
+        <v>5.5999999999999908</v>
+      </c>
+      <c r="L39" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="13">
+        <v>-</v>
+      </c>
+      <c r="M39" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="13">
+        <v>-</v>
+      </c>
+      <c r="N39" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="13">
+        <v>-</v>
+      </c>
+      <c r="O39" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="13">
+        <v>-</v>
+      </c>
+      <c r="P39" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="13">
+        <v>-</v>
+      </c>
+      <c r="Q39" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="13">
+        <v>-</v>
+      </c>
+      <c r="R39" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S39" s="13">
+        <v>-</v>
+      </c>
+      <c r="S39" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T39" s="13">
+        <v>-</v>
+      </c>
+      <c r="T39" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="13">
+        <v>-</v>
+      </c>
+      <c r="U39" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V39" s="13">
+        <v>-</v>
+      </c>
+      <c r="V39" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W39" s="31"/>
       <c r="X39" s="32"/>

--- a/burndownchart.xlsx
+++ b/burndownchart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evanriker\Desktop\Winter 2024\Applied Programing\Pong-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3653BD2A-66F3-41C0-A35B-D2D510143F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2405D1-4539-4CF8-831F-295BBF8A20D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="13944" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
+    <workbookView xWindow="420" yWindow="1560" windowWidth="20484" windowHeight="11880" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Iteration" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
   <si>
     <t>Burndown Chart</t>
   </si>
@@ -159,46 +159,46 @@
     <t>Beginning Balance</t>
   </si>
   <si>
-    <t>They move up and down based off of user input</t>
+    <t>There are 4 paddles - Couger</t>
   </si>
   <si>
-    <t>There are Side Walls</t>
+    <t xml:space="preserve">They move up and down based off of user input - Couger </t>
   </si>
   <si>
-    <t>There is a ball</t>
+    <t>There are Side Walls - John</t>
   </si>
   <si>
-    <t>The Ball bounces off the side walls and the paddles</t>
+    <t>There is a ball - McClain</t>
   </si>
   <si>
-    <t>The ball starts in the center and moves in a radom direction.</t>
+    <t>The Ball bounces off the side walls and the paddles - McClain</t>
   </si>
   <si>
-    <t>There is a point display</t>
+    <t>The ball starts in the center and moves in a radom direction. - Evan</t>
   </si>
   <si>
-    <t>After a score the ball and paddles resets</t>
+    <t>There is a point display - John</t>
   </si>
   <si>
-    <t>There is a menu screen</t>
+    <t>If the ball gets past your paddle you earn a point. - Tyler</t>
   </si>
   <si>
-    <t>clicking the start button starts the game</t>
+    <t>After a score the ball and paddles resets -- Tyler</t>
   </si>
   <si>
-    <t>4 paddles instad of 2</t>
+    <t>4 paddles instad of 2 - Couger</t>
   </si>
   <si>
-    <t>If the ball gets past your paddle you earn a point.</t>
+    <t>There is a menu screen - John</t>
   </si>
   <si>
-    <t>The game is on a time limit at the end of time the ball despawns and the players with the least points is displayed as the winner</t>
+    <t>There is a start button to start the game - John</t>
   </si>
   <si>
-    <t>There are 4 paddles</t>
+    <t>clicking the start button starts the game - Evan</t>
   </si>
   <si>
-    <t>There is a start button to start the game</t>
+    <t>The game is on a time limit at the end of time the ball despawns and the players with the least points is displayed as the winner - Tyler</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1061,7 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -1791,7 +1791,7 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -3902,10 +3902,10 @@
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4167,12 +4167,14 @@
     </row>
     <row r="8" spans="1:24" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="19">
+        <v>4</v>
+      </c>
       <c r="D8" s="20"/>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
@@ -4194,21 +4196,23 @@
       <c r="V8" s="20"/>
       <c r="W8" s="27">
         <f>B8-SUM(C8:V8)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X8" s="17">
         <f>IFERROR(1-(W8/B8),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="21">
         <v>4</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="22">
+        <v>4</v>
+      </c>
       <c r="D9" s="23"/>
       <c r="E9" s="22"/>
       <c r="F9" s="23"/>
@@ -4230,21 +4234,23 @@
       <c r="V9" s="23"/>
       <c r="W9" s="28">
         <f t="shared" ref="W9:W37" si="0">B9-SUM(C9:V9)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X9" s="17">
         <f>IFERROR(1-(W9/B9),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="21">
         <v>4</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="22">
+        <v>4</v>
+      </c>
       <c r="D10" s="23"/>
       <c r="E10" s="22"/>
       <c r="F10" s="23"/>
@@ -4266,21 +4272,23 @@
       <c r="V10" s="23"/>
       <c r="W10" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X10" s="17">
         <f t="shared" ref="X10:X38" si="1">IFERROR(1-(W10/B10),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="21">
         <v>4</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="22">
+        <v>4</v>
+      </c>
       <c r="D11" s="23"/>
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
@@ -4302,21 +4310,23 @@
       <c r="V11" s="23"/>
       <c r="W11" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X11" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="21">
         <v>4</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="22">
+        <v>4</v>
+      </c>
       <c r="D12" s="23"/>
       <c r="E12" s="22"/>
       <c r="F12" s="23"/>
@@ -4338,21 +4348,23 @@
       <c r="V12" s="23"/>
       <c r="W12" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X12" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="21">
         <v>4</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="22">
+        <v>4</v>
+      </c>
       <c r="D13" s="23"/>
       <c r="E13" s="22"/>
       <c r="F13" s="23"/>
@@ -4374,21 +4386,23 @@
       <c r="V13" s="23"/>
       <c r="W13" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X13" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="21">
         <v>4</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="22">
+        <v>4</v>
+      </c>
       <c r="D14" s="23"/>
       <c r="E14" s="22"/>
       <c r="F14" s="23"/>
@@ -4410,21 +4424,23 @@
       <c r="V14" s="23"/>
       <c r="W14" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X14" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" s="21">
         <v>4</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="22">
+        <v>4</v>
+      </c>
       <c r="D15" s="23"/>
       <c r="E15" s="22"/>
       <c r="F15" s="23"/>
@@ -4446,21 +4462,23 @@
       <c r="V15" s="23"/>
       <c r="W15" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X15" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="21">
         <v>4</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="22">
+        <v>4</v>
+      </c>
       <c r="D16" s="23"/>
       <c r="E16" s="22"/>
       <c r="F16" s="23"/>
@@ -4482,11 +4500,11 @@
       <c r="V16" s="23"/>
       <c r="W16" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X16" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -4496,7 +4514,9 @@
       <c r="B17" s="21">
         <v>4</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="22">
+        <v>4</v>
+      </c>
       <c r="D17" s="23"/>
       <c r="E17" s="22"/>
       <c r="F17" s="23"/>
@@ -4518,21 +4538,23 @@
       <c r="V17" s="23"/>
       <c r="W17" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X17" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B18" s="21">
         <v>4</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="22">
+        <v>4</v>
+      </c>
       <c r="D18" s="23"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
@@ -4554,21 +4576,23 @@
       <c r="V18" s="23"/>
       <c r="W18" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X18" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="21">
         <v>4</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="22">
+        <v>4</v>
+      </c>
       <c r="D19" s="23"/>
       <c r="E19" s="22"/>
       <c r="F19" s="23"/>
@@ -4590,21 +4614,23 @@
       <c r="V19" s="23"/>
       <c r="W19" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X19" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B20" s="21">
         <v>4</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="22">
+        <v>4</v>
+      </c>
       <c r="D20" s="23"/>
       <c r="E20" s="22"/>
       <c r="F20" s="23"/>
@@ -4626,21 +4652,23 @@
       <c r="V20" s="23"/>
       <c r="W20" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X20" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="21">
         <v>4</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="22">
+        <v>4</v>
+      </c>
       <c r="D21" s="23"/>
       <c r="E21" s="22"/>
       <c r="F21" s="23"/>
@@ -4662,11 +4690,11 @@
       <c r="V21" s="23"/>
       <c r="W21" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X21" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5221,9 +5249,9 @@
         <f>SUM(B8:B37)</f>
         <v>56</v>
       </c>
-      <c r="C38" s="11" t="e">
+      <c r="C38" s="11">
         <f>IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="D38" s="11" t="e">
         <f t="shared" ref="D38:V38" si="2">IFERROR(IF(C38-SUM(D8:D37)=C38,NA(),C38-SUM(D8:D37)),NA())</f>
@@ -5303,11 +5331,11 @@
       </c>
       <c r="W38" s="35">
         <f>SUM(W8:W37)</f>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="X38" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
